--- a/backend/output/extracted_data_1758023541274.xlsx
+++ b/backend/output/extracted_data_1758023541274.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W6"/>
+  <dimension ref="A1:W4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -591,87 +591,87 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Summary of Product Characteristics, SmPC, Product Information</t>
+          <t>Summary of Product Characteristics</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Awiqli</t>
+          <t>Prasugrel Viatris</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>insulin icodec</t>
+          <t>Prasugrel</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>700 units/mL</t>
+          <t>5 mg and 10 mg</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>Solution for injection in pre-filled pen</t>
+          <t>Film-coated tablet</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>Subcutaneous use</t>
+          <t>Oral</t>
         </is>
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>Treatment of diabetes mellitus in adults</t>
+          <t>Prevention of atherothrombotic events in adult patients with acute coronary syndrome</t>
         </is>
       </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>Once-weekly subcutaneous administration, dose can be adjusted based on individual patient needs</t>
+          <t>Initiated with a single 60 mg loading dose and then continued at 10 mg once a day. In patients with a body weight &lt;60 kg or age ≥75 years, the dose is 5 mg once a day.</t>
         </is>
       </c>
       <c r="I2" s="2" t="inlineStr">
         <is>
-          <t>Hypersensitivity to the active substance or to any of the excipients</t>
+          <t>Hypersensitivity to the active substance or to any of the excipients, active pathological bleeding, history of stroke or transient ischaemic attack (TIA), severe hepatic impairment (Child Pugh class C)</t>
         </is>
       </c>
       <c r="J2" s="2" t="inlineStr">
         <is>
-          <t>Risk of hypoglycaemia, special warnings for patients with type 1 diabetes, patients with renal or hepatic impairment</t>
+          <t>Bleeding risk, hypersensitivity including angioedema, thrombotic thrombocytopaenic purpura (TTP), morphine and other opioids</t>
         </is>
       </c>
       <c r="K2" s="2" t="inlineStr">
         <is>
-          <t>Novo Nordisk A/S</t>
+          <t>Viatris Limited</t>
         </is>
       </c>
       <c r="L2" s="2" t="inlineStr">
         <is>
-          <t>EU/1/24/1815/001, EU/1/24/1815/002, EU/1/24/1815/003, EU/1/24/1815/004, EU/1/24/1815/005, EU/1/24/1815/006, EU/1/24/1815/007, EU/1/24/1815/008, EU/1/24/1815/009, EU/1/24/1815/010, EU/1/24/1815/011, EU/1/24/1815/012, EU/1/24/1815/013, EU/1/24/1815/014</t>
+          <t>EU/1/18/1273/001, EU/1/18/1273/002, EU/1/18/1273/003, EU/1/18/1273/004, EU/1/18/1273/005, EU/1/18/1273/006, EU/1/18/1273/007, EU/1/18/1273/008, EU/1/18/1273/009, EU/1/18/1273/010, EU/1/18/1273/011, EU/1/18/1273/012, EU/1/18/1273/013, EU/1/18/1273/014, EU/1/18/1273/015</t>
         </is>
       </c>
       <c r="M2" s="2" t="inlineStr">
         <is>
-          <t>17 May 2024</t>
+          <t>16 May 2018</t>
         </is>
       </c>
       <c r="N2" s="2" t="inlineStr">
         <is>
-          <t>"Date of Latest Renewal": "Not found",</t>
+          <t>20 March 2023</t>
         </is>
       </c>
       <c r="O2" s="2" t="inlineStr">
         <is>
-          <t>3 years</t>
+          <t>2 years</t>
         </is>
       </c>
       <c r="P2" s="2" t="inlineStr">
         <is>
-          <t>Store in a refrigerator (2 °C - 8 °C), do not freeze, store below 30 °C after first opening</t>
+          <t>Do not store above 30°C (for 5 mg) and 25°C (for 10 mg). Store in the original package in order to protect from moisture.</t>
         </is>
       </c>
       <c r="Q2" s="2" t="inlineStr">
         <is>
-          <t>Pre-filled pen containing 700 units of insulin icodec in 1 mL solution, 1.5 mL solution, or 3 mL solution</t>
+          <t>Film-coated tablets, available in plastic bottles containing a desiccant and 28 or 30 film-coated tablets, and in blister packs containing 28, 30, 84, 90, 98 and in perforated blister packs containing 30 x 1 and 90 x 1 film-coated tablets.</t>
         </is>
       </c>
       <c r="R2" s="2" t="inlineStr">
@@ -681,22 +681,22 @@
       </c>
       <c r="S2" s="2" t="inlineStr">
         <is>
-          <t>A10AE07</t>
+          <t>B01AC22</t>
         </is>
       </c>
       <c r="T2" s="2" t="inlineStr">
         <is>
-          <t>Novo Nordisk A/S</t>
+          <t>Viatris Limited, Mylan Hungary Kft., McDermott Laboratories Limited t/a Gerard Laboratories</t>
         </is>
       </c>
       <c r="U2" s="2" t="inlineStr">
         <is>
-          <t>Glycerol, metacresol, phenol, zinc acetate, sodium chloride, hydrochloric acid, sodium hydroxide, water for injections</t>
+          <t>Microcrystalline cellulose, mannitol, crospovidone, colloidal anhydrous silica, magnesium stearate, polyvinyl alcohol, talc, titanium dioxide (E171), glyceryl monocaprylocaprate, sodium lauryl sulfate, iron oxide yellow (E172), sunset yellow FCF aluminium lake (E110), iron oxide red (E172)</t>
         </is>
       </c>
       <c r="V2" s="2" t="inlineStr">
         <is>
-          <t>https://graph.microsoft.com/v1.0/sites/slickbitai.sharepoint.com,b749c6f0-ede8-48b2-9420-ce94ca741683,876dc7c6-5b74-44d2-9d5c-a40b9e5cbf21/drive/root:/application_test1</t>
+          <t>prasugrel-viatris-epar-product-information_en.pdf</t>
         </is>
       </c>
       <c r="W2" s="2" t="inlineStr">
@@ -708,7 +708,7 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>Summary of Product Characteristics</t>
+          <t>Summary of Product Characteristics, SmPC, Product Information</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -728,12 +728,12 @@
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>solution for injection in pre-filled pen</t>
+          <t>Solution for injection in pre-filled pen</t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>subcutaneous use</t>
+          <t>Subcutaneous use</t>
         </is>
       </c>
       <c r="G3" s="2" t="inlineStr">
@@ -743,7 +743,7 @@
       </c>
       <c r="H3" s="2" t="inlineStr">
         <is>
-          <t>This medicinal product is a basal insulin for once-weekly subcutaneous administration</t>
+          <t>Once-weekly subcutaneous administration, dose can be adjusted based on fasting plasma glucose</t>
         </is>
       </c>
       <c r="I3" s="2" t="inlineStr">
@@ -753,7 +753,7 @@
       </c>
       <c r="J3" s="2" t="inlineStr">
         <is>
-          <t>Hypoglycaemia may occur if the insulin dose is too high in relation to the insulin requirement</t>
+          <t>Risk of hypoglycaemia, special warnings for patients with type 1 diabetes, patients with renal or hepatic impairment</t>
         </is>
       </c>
       <c r="K3" s="2" t="inlineStr">
@@ -783,12 +783,12 @@
       </c>
       <c r="P3" s="2" t="inlineStr">
         <is>
-          <t>Store in a refrigerator (2 °C - 8 °C). Do not freeze. Keep away from the freezing element. Keep the cap on the pen in order to protect it from light</t>
+          <t>Store in a refrigerator (2 °C - 8 °C), do not freeze, keep the cap on the pen to protect from light</t>
         </is>
       </c>
       <c r="Q3" s="2" t="inlineStr">
         <is>
-          <t>1 mL solution contains 700 units of insulin icodec (equivalent to 26.8 mg). Each pre-filled pen contains 700 units of insulin icodec in 1 mL solution. Each pre-filled pen contains 1 050 units of insulin icodec in 1.5 mL solution. Each pre-filled pen contains 2 100 units of insulin icodec in 3 mL solution</t>
+          <t>Pre-filled pen containing 700 units of insulin icodec in 1 mL solution, 1.5 mL solution, or 3 mL solution</t>
         </is>
       </c>
       <c r="R3" s="2" t="inlineStr">
@@ -808,12 +808,12 @@
       </c>
       <c r="U3" s="2" t="inlineStr">
         <is>
-          <t>Glycerol, metacresol, phenol, zinc acetate, sodium chloride, hydrochloric acid, sodium hydroxide, and water for injections</t>
+          <t>Glycerol, metacresol, phenol, zinc acetate, sodium chloride, hydrochloric acid, sodium hydroxide, water for injections</t>
         </is>
       </c>
       <c r="V3" s="2" t="inlineStr">
         <is>
-          <t>awiqli-epar-product-information_en.pdf</t>
+          <t>application_test1</t>
         </is>
       </c>
       <c r="W3" s="2" t="inlineStr">
@@ -825,349 +825,115 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>Summary of Product Characteristics, SmPC, Product Information</t>
+          <t>Not found</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>Awiqli</t>
+          <t>Not found</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>insulin icodec</t>
+          <t>Not found</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>700 units/mL</t>
+          <t>Not found</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>Solution for injection in pre-filled pen</t>
+          <t>Not found</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>Subcutaneous use</t>
+          <t>Not found</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>Treatment of diabetes mellitus in adults</t>
+          <t>Not found</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>Once-weekly subcutaneous administration, dose can be adjusted based on fasting plasma glucose</t>
+          <t>Not found</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>Hypersensitivity to the active substance or to any of the excipients</t>
+          <t>Not found</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>Risk of hypoglycaemia, special warnings for patients with type 1 diabetes, patients with renal or hepatic impairment</t>
+          <t>Not found</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>Novo Nordisk A/S</t>
+          <t>Not found</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>EU/1/24/1815/001, EU/1/24/1815/002, EU/1/24/1815/003, EU/1/24/1815/004, EU/1/24/1815/005, EU/1/24/1815/006, EU/1/24/1815/007, EU/1/24/1815/008, EU/1/24/1815/009, EU/1/24/1815/010, EU/1/24/1815/011, EU/1/24/1815/012, EU/1/24/1815/013, EU/1/24/1815/014</t>
+          <t>Not found</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>17 May 2024</t>
+          <t>Not found</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>"Date of Latest Renewal": "Not found",</t>
+          <t>Not found</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>3 years</t>
+          <t>Not found</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>Store in a refrigerator (2 °C - 8 °C), do not freeze, keep the cap on the pen to protect from light</t>
+          <t>Not found</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>Pre-filled pen containing 700 units of insulin icodec in 1 mL solution, 1.5 mL solution, or 3 mL solution</t>
+          <t>Not found</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>Prescription only</t>
+          <t>Not found</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>A10AE07</t>
+          <t>Not found</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>Novo Nordisk A/S</t>
+          <t>Not found</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>Glycerol, metacresol, phenol, zinc acetate, sodium chloride, hydrochloric acid, sodium hydroxide, water for injections</t>
+          <t>Not found</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>application_test1</t>
+          <t>https://graph.microsoft.com/v1.0/sites/slickbitai.sharepoint.com,b749c6f0-ede8-48b2-9420-ce94ca741683,876dc7c6-5b74-44d2-9d5c-a40b9e5cbf21/drive/root:/application_test1</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
-        <is>
-          <t>1758023541274</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>Summary of Product Characteristics</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>Awiqli</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>insulin icodec</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>700 units/mL</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>Solution for injection in pre-filled pen</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>Subcutaneous use</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>Treatment of diabetes mellitus in adults</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>Once-weekly subcutaneous administration</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>Hypersensitivity to the active substance or to any of the excipients</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>Hypoglycaemia, switching between other insulins and insulin icodec, lipodystrophy and cutaneous amyloidosis</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>Novo Nordisk A/S</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>EU/1/24/1815/001, EU/1/24/1815/002, EU/1/24/1815/003, EU/1/24/1815/004, EU/1/24/1815/005, EU/1/24/1815/006, EU/1/24/1815/007, EU/1/24/1815/008, EU/1/24/1815/009, EU/1/24/1815/010, EU/1/24/1815/011, EU/1/24/1815/012, EU/1/24/1815/013, EU/1/24/1815/014</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>17 May 2024</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>"Date of Latest Renewal": "Not found",</t>
-        </is>
-      </c>
-      <c r="O5" s="2" t="inlineStr">
-        <is>
-          <t>3 years</t>
-        </is>
-      </c>
-      <c r="P5" s="2" t="inlineStr">
-        <is>
-          <t>Store in a refrigerator (2 °C - 8 °C). Do not freeze. Keep away from the freezing element. Keep the cap on the pen in order to protect it from light.</t>
-        </is>
-      </c>
-      <c r="Q5" s="2" t="inlineStr">
-        <is>
-          <t>1 mL solution contains 700 units of insulin icodec (equivalent to 26.8 mg). Each pre-filled pen contains 700 units of insulin icodec in 1 mL solution. Each pre-filled pen contains 1 050 units of insulin icodec in 1.5 mL solution. Each pre-filled pen contains 2 100 units of insulin icodec in 3 mL solution</t>
-        </is>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Prescription only</t>
-        </is>
-      </c>
-      <c r="S5" s="2" t="inlineStr">
-        <is>
-          <t>A10AE07</t>
-        </is>
-      </c>
-      <c r="T5" s="2" t="inlineStr">
-        <is>
-          <t>Novo Nordisk A/S</t>
-        </is>
-      </c>
-      <c r="U5" s="2" t="inlineStr">
-        <is>
-          <t>Glycerol, metacresol, phenol, zinc acetate, sodium chloride, hydrochloric acid, sodium hydroxide, and water for injections</t>
-        </is>
-      </c>
-      <c r="V5" s="2" t="inlineStr">
-        <is>
-          <t>awiqli-epar-product-information_en.pdf</t>
-        </is>
-      </c>
-      <c r="W5" s="2" t="inlineStr">
-        <is>
-          <t>1758023541274</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>Summary of Product Characteristics</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>Awiqli</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>insulin icodec</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>700 units/mL</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>Solution for injection in pre-filled pen</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>Subcutaneous use</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>Treatment of diabetes mellitus in adults</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>Once-weekly subcutaneous administration</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>Hypersensitivity to the active substance or to any of the excipients</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>Hypoglycaemia, switching between other insulins and insulin icodec, lipodystrophy and cutaneous amyloidosis</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>Novo Nordisk A/S</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>EU/1/24/1815/001, EU/1/24/1815/002, EU/1/24/1815/003, EU/1/24/1815/004, EU/1/24/1815/005, EU/1/24/1815/006, EU/1/24/1815/007, EU/1/24/1815/008, EU/1/24/1815/009, EU/1/24/1815/010, EU/1/24/1815/011, EU/1/24/1815/012, EU/1/24/1815/013, EU/1/24/1815/014</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>17 May 2024</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>"Date of Latest Renewal": "Not found",</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>3 years</t>
-        </is>
-      </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>Store in a refrigerator (2 °C - 8 °C). Do not freeze. Keep away from the freezing element. Keep the cap on the pen in order to protect it from light.</t>
-        </is>
-      </c>
-      <c r="Q6" s="2" t="inlineStr">
-        <is>
-          <t>1 mL solution contains 700 units of insulin icodec (equivalent to 26.8 mg). Each pre-filled pen contains 700 units of insulin icodec in 1 mL solution. Each pre-filled pen contains 1 050 units of insulin icodec in 1.5 mL solution. Each pre-filled pen contains 2 100 units of insulin icodec in 3 mL solution</t>
-        </is>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Prescription only</t>
-        </is>
-      </c>
-      <c r="S6" s="2" t="inlineStr">
-        <is>
-          <t>A10AE07</t>
-        </is>
-      </c>
-      <c r="T6" s="2" t="inlineStr">
-        <is>
-          <t>Novo Nordisk A/S</t>
-        </is>
-      </c>
-      <c r="U6" s="2" t="inlineStr">
-        <is>
-          <t>Glycerol, metacresol, phenol, zinc acetate, sodium chloride, hydrochloric acid, sodium hydroxide, and water for injections</t>
-        </is>
-      </c>
-      <c r="V6" s="2" t="inlineStr">
-        <is>
-          <t>awiqli-epar-product-information_en.pdf</t>
-        </is>
-      </c>
-      <c r="W6" s="2" t="inlineStr">
         <is>
           <t>1758023541274</t>
         </is>
